--- a/Divisions/D2.xlsx
+++ b/Divisions/D2.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9912" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10006" uniqueCount="328">
   <si>
     <t>Team</t>
   </si>
@@ -773,6 +774,234 @@
   </si>
   <si>
     <t>3.129</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Bochum,W W L W W L</t>
+  </si>
+  <si>
+    <t>Braunschweig,D L W D L L</t>
+  </si>
+  <si>
+    <t>Darmstadt,D L W D W W</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue,W D L L W D</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf,L W W W L W</t>
+  </si>
+  <si>
+    <t>Greuther Furth,D W D W L W</t>
+  </si>
+  <si>
+    <t>Hamburg,W D L L D D</t>
+  </si>
+  <si>
+    <t>Hannover,D L L L W L</t>
+  </si>
+  <si>
+    <t>Heidenheim,L W W W L L</t>
+  </si>
+  <si>
+    <t>Holstein Kiel,W D L L W D</t>
+  </si>
+  <si>
+    <t>Karlsruhe,D L D D D L</t>
+  </si>
+  <si>
+    <t>Nurnberg,D W D W W D</t>
+  </si>
+  <si>
+    <t>Osnabruck,W L L L D L</t>
+  </si>
+  <si>
+    <t>Paderborn,D L W D D W</t>
+  </si>
+  <si>
+    <t>Regensburg,D D W L L D</t>
+  </si>
+  <si>
+    <t>Sandhausen,D L W W W L</t>
+  </si>
+  <si>
+    <t>St Pauli,W W W W L W</t>
+  </si>
+  <si>
+    <t>Wurzburger Kickers,L W D L L D</t>
+  </si>
+  <si>
+    <t>Bochum,3 2 0 4 2 1</t>
+  </si>
+  <si>
+    <t>Braunschweig,1 0 4 0 0 0</t>
+  </si>
+  <si>
+    <t>Darmstadt,1 1 2 2 3 3</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue,2 1 1 0 2 0</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf,0 2 3 2 1 3</t>
+  </si>
+  <si>
+    <t>Greuther Furth,2 1 2 3 1 3</t>
+  </si>
+  <si>
+    <t>Hamburg,2 3 1 1 1 1</t>
+  </si>
+  <si>
+    <t>Hannover,3 1 1 3 3 2</t>
+  </si>
+  <si>
+    <t>Heidenheim,0 1 3 3 0 1</t>
+  </si>
+  <si>
+    <t>Holstein Kiel,1 1 1 0 3 1</t>
+  </si>
+  <si>
+    <t>Karlsruhe,2 0 2 0 1 2</t>
+  </si>
+  <si>
+    <t>Nurnberg,2 2 1 1 3 1</t>
+  </si>
+  <si>
+    <t>Osnabruck,1 0 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Paderborn,2 1 3 0 2 2</t>
+  </si>
+  <si>
+    <t>Regensburg,1 1 1 0 1 1</t>
+  </si>
+  <si>
+    <t>Sandhausen,0 0 1 2 4 2</t>
+  </si>
+  <si>
+    <t>St Pauli,2 2 3 4 0 2</t>
+  </si>
+  <si>
+    <t>Wurzburger Kickers,0 2 1 0 1 2</t>
+  </si>
+  <si>
+    <t>Bochum,0 1 3 3 0 3</t>
+  </si>
+  <si>
+    <t>Braunschweig,1 2 0 0 3 2</t>
+  </si>
+  <si>
+    <t>Darmstadt,1 2 1 2 1 1</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue,0 1 3 1 0 0</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf,3 1 0 0 2 2</t>
+  </si>
+  <si>
+    <t>Greuther Furth,2 0 2 0 2 2</t>
+  </si>
+  <si>
+    <t>Hamburg,0 3 2 2 1 1</t>
+  </si>
+  <si>
+    <t>Hannover,3 2 3 4 1 4</t>
+  </si>
+  <si>
+    <t>Heidenheim,1 0 1 0 2 3</t>
+  </si>
+  <si>
+    <t>Holstein Kiel,0 1 2 1 1 1</t>
+  </si>
+  <si>
+    <t>Karlsruhe,2 1 2 0 1 3</t>
+  </si>
+  <si>
+    <t>Nurnberg,2 1 1 0 1 1</t>
+  </si>
+  <si>
+    <t>Osnabruck,0 4 1 3 2 3</t>
+  </si>
+  <si>
+    <t>Paderborn,2 2 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Regensburg,1 1 0 3 3 1</t>
+  </si>
+  <si>
+    <t>Sandhausen,0 2 0 1 2 3</t>
+  </si>
+  <si>
+    <t>St Pauli,1 0 1 0 2 1</t>
+  </si>
+  <si>
+    <t>Wurzburger Kickers,1 1 1 4 3 2</t>
+  </si>
+  <si>
+    <t>Bochum,3 3 3 7 2 4</t>
+  </si>
+  <si>
+    <t>Braunschweig,2 2 4 0 3 2</t>
+  </si>
+  <si>
+    <t>Darmstadt,2 3 3 4 4 4</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue,2 2 4 1 2 0</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf,3 3 3 2 3 5</t>
+  </si>
+  <si>
+    <t>Greuther Furth,4 1 4 3 3 5</t>
+  </si>
+  <si>
+    <t>Hamburg,2 6 3 3 2 2</t>
+  </si>
+  <si>
+    <t>Hannover,6 3 4 7 4 6</t>
+  </si>
+  <si>
+    <t>Heidenheim,1 1 4 3 2 4</t>
+  </si>
+  <si>
+    <t>Holstein Kiel,1 2 3 1 4 2</t>
+  </si>
+  <si>
+    <t>Karlsruhe,4 1 4 0 2 5</t>
+  </si>
+  <si>
+    <t>Nurnberg,4 3 2 1 4 2</t>
+  </si>
+  <si>
+    <t>Osnabruck,1 4 1 3 4 4</t>
+  </si>
+  <si>
+    <t>Paderborn,4 3 3 0 4 3</t>
+  </si>
+  <si>
+    <t>Regensburg,2 2 1 3 4 2</t>
+  </si>
+  <si>
+    <t>Sandhausen,0 2 1 3 6 5</t>
+  </si>
+  <si>
+    <t>St Pauli,3 2 4 4 2 3</t>
+  </si>
+  <si>
+    <t>Wurzburger Kickers,1 3 2 4 4 4</t>
   </si>
 </sst>
 </file>
@@ -30861,4 +31090,338 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/D2.xlsx
+++ b/Divisions/D2.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7320" tabRatio="667" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
-    <sheet name="Form" r:id="rId4" sheetId="2"/>
-    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
-    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
-    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
-    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
-    <sheet name="L6" r:id="rId10" sheetId="8"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
+    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
+    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
+    <sheet name="L6" sheetId="8" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1425,11 +1432,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1441,7 +1447,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1459,19 +1465,292 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1532,7 +1811,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1564,7 +1843,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1596,7 +1875,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1628,7 +1907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1660,7 +1939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1692,7 +1971,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1724,7 +2003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +2035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1788,7 +2067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1820,7 +2099,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1852,7 +2131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1884,7 +2163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1916,7 +2195,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1948,7 +2227,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1980,7 +2259,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2012,7 +2291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2044,7 +2323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2077,20 +2356,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DW19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:127" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -2470,7 +2748,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2853,7 +3131,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -3236,7 +3514,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3619,7 +3897,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -4002,7 +4280,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4385,7 +4663,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4768,7 +5046,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5151,7 +5429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -5534,7 +5812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -5917,7 +6195,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -6300,7 +6578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -6683,7 +6961,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -7066,7 +7344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -7449,7 +7727,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -7832,7 +8110,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -8215,7 +8493,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -8598,7 +8876,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -8981,7 +9259,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -9365,20 +9643,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DW19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:127" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -9758,7 +10035,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -10141,7 +10418,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -10524,7 +10801,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -10907,7 +11184,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -11290,7 +11567,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -11673,7 +11950,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -12056,7 +12333,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -12439,7 +12716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -12822,7 +13099,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -13205,7 +13482,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -13588,7 +13865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -13971,7 +14248,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -14354,7 +14631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -14737,7 +15014,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -15120,7 +15397,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -15503,7 +15780,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -15886,7 +16163,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -16269,7 +16546,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -16653,20 +16930,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DW19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:127" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -17046,7 +17322,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -17429,7 +17705,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -17812,7 +18088,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -18195,7 +18471,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -18578,7 +18854,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -18961,7 +19237,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -19344,7 +19620,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -19727,7 +20003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -20110,7 +20386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -20493,7 +20769,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -20876,7 +21152,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -21259,7 +21535,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -21642,7 +21918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -22025,7 +22301,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -22408,7 +22684,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -22791,7 +23067,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -23174,7 +23450,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -23557,7 +23833,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -23941,20 +24217,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DW19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:127" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -24334,7 +24609,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -24717,7 +24992,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -25100,7 +25375,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -25483,7 +25758,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -25866,7 +26141,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -26249,7 +26524,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -26632,7 +26907,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -27015,7 +27290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -27398,7 +27673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -27781,7 +28056,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -28164,7 +28439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -28547,7 +28822,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -28930,7 +29205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -29313,7 +29588,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -29696,7 +29971,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -30079,7 +30354,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -30462,7 +30737,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -30845,7 +31120,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -31229,20 +31504,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>27</v>
       </c>
@@ -31313,7 +31587,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -31387,7 +31661,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -31461,7 +31735,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -31535,7 +31809,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -31609,7 +31883,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -31683,7 +31957,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -31757,7 +32031,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -31831,7 +32105,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -31905,7 +32179,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -31979,7 +32253,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -32053,7 +32327,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -32127,7 +32401,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -32201,7 +32475,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -32275,7 +32549,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -32349,7 +32623,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -32423,7 +32697,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -32497,7 +32771,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -32571,7 +32845,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -32646,20 +32920,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>266</v>
       </c>
@@ -32733,36 +33006,36 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>173.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="C2">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>78</v>
+      </c>
+      <c r="E2">
+        <v>173</v>
+      </c>
+      <c r="F2">
+        <v>37</v>
+      </c>
+      <c r="G2">
         <v>2.3125</v>
       </c>
-      <c r="H2" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
         <v>1.5625</v>
       </c>
-      <c r="J2" t="n">
-        <v>62.0</v>
+      <c r="J2">
+        <v>62</v>
       </c>
       <c r="K2" t="s">
         <v>289</v>
@@ -32773,32 +33046,32 @@
       <c r="M2" t="s">
         <v>324</v>
       </c>
-      <c r="N2" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="N2">
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <v>57</v>
+      </c>
+      <c r="P2">
+        <v>85</v>
+      </c>
+      <c r="Q2">
+        <v>142</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
         <v>0.9375</v>
       </c>
-      <c r="T2" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="T2">
+        <v>22</v>
+      </c>
+      <c r="U2">
         <v>1.375</v>
       </c>
-      <c r="V2" t="n">
-        <v>37.0</v>
+      <c r="V2">
+        <v>37</v>
       </c>
       <c r="W2" t="s">
         <v>309</v>
@@ -32810,36 +33083,36 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="C3">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
         <v>0.8125</v>
       </c>
-      <c r="J3" t="n">
-        <v>29.0</v>
+      <c r="J3">
+        <v>29</v>
       </c>
       <c r="K3" t="s">
         <v>290</v>
@@ -32850,32 +33123,32 @@
       <c r="M3" t="s">
         <v>325</v>
       </c>
-      <c r="N3" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>161.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="N3">
+        <v>32</v>
+      </c>
+      <c r="O3">
+        <v>74</v>
+      </c>
+      <c r="P3">
+        <v>87</v>
+      </c>
+      <c r="Q3">
+        <v>161</v>
+      </c>
+      <c r="R3">
+        <v>21</v>
+      </c>
+      <c r="S3">
         <v>1.3125</v>
       </c>
-      <c r="T3" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>53.0</v>
+      <c r="T3">
+        <v>32</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>53</v>
       </c>
       <c r="W3" t="s">
         <v>342</v>
@@ -32887,36 +33160,36 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="C4">
+        <v>92</v>
+      </c>
+      <c r="D4">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>180</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
         <v>1.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>31</v>
+      </c>
+      <c r="I4">
         <v>1.9375</v>
       </c>
-      <c r="J4" t="n">
-        <v>55.0</v>
+      <c r="J4">
+        <v>55</v>
       </c>
       <c r="K4" t="s">
         <v>291</v>
@@ -32927,32 +33200,32 @@
       <c r="M4" t="s">
         <v>326</v>
       </c>
-      <c r="N4" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>168.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="N4">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>85</v>
+      </c>
+      <c r="P4">
+        <v>83</v>
+      </c>
+      <c r="Q4">
+        <v>168</v>
+      </c>
+      <c r="R4">
+        <v>22</v>
+      </c>
+      <c r="S4">
         <v>1.375</v>
       </c>
-      <c r="T4" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="T4">
+        <v>30</v>
+      </c>
+      <c r="U4">
         <v>1.875</v>
       </c>
-      <c r="V4" t="n">
-        <v>52.0</v>
+      <c r="V4">
+        <v>52</v>
       </c>
       <c r="W4" t="s">
         <v>317</v>
@@ -32964,36 +33237,36 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>137.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>137</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
         <v>1.6875</v>
       </c>
-      <c r="H5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
         <v>0.9375</v>
       </c>
-      <c r="J5" t="n">
-        <v>42.0</v>
+      <c r="J5">
+        <v>42</v>
       </c>
       <c r="K5" t="s">
         <v>292</v>
@@ -33004,32 +33277,32 @@
       <c r="M5" t="s">
         <v>327</v>
       </c>
-      <c r="N5" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>187.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="N5">
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>88</v>
+      </c>
+      <c r="P5">
+        <v>99</v>
+      </c>
+      <c r="Q5">
+        <v>187</v>
+      </c>
+      <c r="R5">
+        <v>27</v>
+      </c>
+      <c r="S5">
         <v>1.6875</v>
       </c>
-      <c r="T5" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="T5">
+        <v>22</v>
+      </c>
+      <c r="U5">
         <v>1.375</v>
       </c>
-      <c r="V5" t="n">
-        <v>49.0</v>
+      <c r="V5">
+        <v>49</v>
       </c>
       <c r="W5" t="s">
         <v>343</v>
@@ -33041,36 +33314,36 @@
         <v>376</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>154.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="C6">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>154</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6">
         <v>1.8125</v>
       </c>
-      <c r="H6" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
         <v>1.3125</v>
       </c>
-      <c r="J6" t="n">
-        <v>50.0</v>
+      <c r="J6">
+        <v>50</v>
       </c>
       <c r="K6" t="s">
         <v>293</v>
@@ -33081,32 +33354,32 @@
       <c r="M6" t="s">
         <v>328</v>
       </c>
-      <c r="N6" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="N6">
+        <v>32</v>
+      </c>
+      <c r="O6">
+        <v>68</v>
+      </c>
+      <c r="P6">
+        <v>65</v>
+      </c>
+      <c r="Q6">
+        <v>133</v>
+      </c>
+      <c r="R6">
+        <v>20</v>
+      </c>
+      <c r="S6">
         <v>1.25</v>
       </c>
-      <c r="T6" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="T6">
+        <v>23</v>
+      </c>
+      <c r="U6">
         <v>1.4375</v>
       </c>
-      <c r="V6" t="n">
-        <v>43.0</v>
+      <c r="V6">
+        <v>43</v>
       </c>
       <c r="W6" t="s">
         <v>344</v>
@@ -33118,36 +33391,36 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>168.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="C7">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>168</v>
+      </c>
+      <c r="F7">
+        <v>31</v>
+      </c>
+      <c r="G7">
         <v>1.9375</v>
       </c>
-      <c r="H7" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7">
+        <v>31</v>
+      </c>
+      <c r="I7">
         <v>1.9375</v>
       </c>
-      <c r="J7" t="n">
-        <v>62.0</v>
+      <c r="J7">
+        <v>62</v>
       </c>
       <c r="K7" t="s">
         <v>294</v>
@@ -33158,32 +33431,32 @@
       <c r="M7" t="s">
         <v>329</v>
       </c>
-      <c r="N7" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="N7">
+        <v>32</v>
+      </c>
+      <c r="O7">
+        <v>71</v>
+      </c>
+      <c r="P7">
+        <v>55</v>
+      </c>
+      <c r="Q7">
+        <v>126</v>
+      </c>
+      <c r="R7">
+        <v>21</v>
+      </c>
+      <c r="S7">
         <v>1.3125</v>
       </c>
-      <c r="T7" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="T7">
+        <v>19</v>
+      </c>
+      <c r="U7">
         <v>1.1875</v>
       </c>
-      <c r="V7" t="n">
-        <v>40.0</v>
+      <c r="V7">
+        <v>40</v>
       </c>
       <c r="W7" t="s">
         <v>345</v>
@@ -33195,36 +33468,36 @@
         <v>378</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>165.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="C8">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>165</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="G8">
         <v>2.25</v>
       </c>
-      <c r="H8" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>29</v>
+      </c>
+      <c r="I8">
         <v>1.8125</v>
       </c>
-      <c r="J8" t="n">
-        <v>65.0</v>
+      <c r="J8">
+        <v>65</v>
       </c>
       <c r="K8" t="s">
         <v>295</v>
@@ -33235,32 +33508,32 @@
       <c r="M8" t="s">
         <v>330</v>
       </c>
-      <c r="N8" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="N8">
+        <v>32</v>
+      </c>
+      <c r="O8">
+        <v>64</v>
+      </c>
+      <c r="P8">
+        <v>69</v>
+      </c>
+      <c r="Q8">
+        <v>133</v>
+      </c>
+      <c r="R8">
+        <v>16</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>25</v>
+      </c>
+      <c r="U8">
         <v>1.5625</v>
       </c>
-      <c r="V8" t="n">
-        <v>41.0</v>
+      <c r="V8">
+        <v>41</v>
       </c>
       <c r="W8" t="s">
         <v>346</v>
@@ -33272,36 +33545,36 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>166.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="C9">
+        <v>98</v>
+      </c>
+      <c r="D9">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>166</v>
+      </c>
+      <c r="F9">
+        <v>29</v>
+      </c>
+      <c r="G9">
         <v>1.8125</v>
       </c>
-      <c r="H9" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
         <v>1.3125</v>
       </c>
-      <c r="J9" t="n">
-        <v>50.0</v>
+      <c r="J9">
+        <v>50</v>
       </c>
       <c r="K9" t="s">
         <v>296</v>
@@ -33312,32 +33585,32 @@
       <c r="M9" t="s">
         <v>331</v>
       </c>
-      <c r="N9" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="N9">
+        <v>32</v>
+      </c>
+      <c r="O9">
+        <v>58</v>
+      </c>
+      <c r="P9">
+        <v>92</v>
+      </c>
+      <c r="Q9">
+        <v>150</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
         <v>1.25</v>
       </c>
-      <c r="T9" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="T9">
+        <v>28</v>
+      </c>
+      <c r="U9">
         <v>1.75</v>
       </c>
-      <c r="V9" t="n">
-        <v>48.0</v>
+      <c r="V9">
+        <v>48</v>
       </c>
       <c r="W9" t="s">
         <v>347</v>
@@ -33349,36 +33622,36 @@
         <v>380</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>151.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="C10">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>73</v>
+      </c>
+      <c r="E10">
+        <v>151</v>
+      </c>
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10">
         <v>1.6875</v>
       </c>
-      <c r="H10" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
         <v>1.25</v>
       </c>
-      <c r="J10" t="n">
-        <v>47.0</v>
+      <c r="J10">
+        <v>47</v>
       </c>
       <c r="K10" t="s">
         <v>297</v>
@@ -33389,32 +33662,32 @@
       <c r="M10" t="s">
         <v>332</v>
       </c>
-      <c r="N10" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>139.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="N10">
+        <v>32</v>
+      </c>
+      <c r="O10">
+        <v>59</v>
+      </c>
+      <c r="P10">
+        <v>80</v>
+      </c>
+      <c r="Q10">
+        <v>139</v>
+      </c>
+      <c r="R10">
+        <v>14</v>
+      </c>
+      <c r="S10">
         <v>0.875</v>
       </c>
-      <c r="T10" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="T10">
+        <v>28</v>
+      </c>
+      <c r="U10">
         <v>1.75</v>
       </c>
-      <c r="V10" t="n">
-        <v>42.0</v>
+      <c r="V10">
+        <v>42</v>
       </c>
       <c r="W10" t="s">
         <v>348</v>
@@ -33426,36 +33699,36 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="C11">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>129</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
         <v>1.7333333333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11">
         <v>1.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>50.0</v>
+      <c r="J11">
+        <v>50</v>
       </c>
       <c r="K11" t="s">
         <v>298</v>
@@ -33466,32 +33739,32 @@
       <c r="M11" t="s">
         <v>333</v>
       </c>
-      <c r="N11" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="T11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="N11">
+        <v>31</v>
+      </c>
+      <c r="O11">
+        <v>58</v>
+      </c>
+      <c r="P11">
+        <v>51</v>
+      </c>
+      <c r="Q11">
+        <v>109</v>
+      </c>
+      <c r="R11">
+        <v>14</v>
+      </c>
+      <c r="S11">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="T11">
+        <v>13</v>
+      </c>
+      <c r="U11">
         <v>0.8125</v>
       </c>
-      <c r="V11" t="n">
-        <v>27.0</v>
+      <c r="V11">
+        <v>27</v>
       </c>
       <c r="W11" t="s">
         <v>349</v>
@@ -33503,36 +33776,36 @@
         <v>382</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>154.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="C12">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>154</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
         <v>1.875</v>
       </c>
-      <c r="J12" t="n">
-        <v>46.0</v>
+      <c r="J12">
+        <v>46</v>
       </c>
       <c r="K12" t="s">
         <v>299</v>
@@ -33543,32 +33816,32 @@
       <c r="M12" t="s">
         <v>334</v>
       </c>
-      <c r="N12" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>147.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="N12">
+        <v>32</v>
+      </c>
+      <c r="O12">
+        <v>67</v>
+      </c>
+      <c r="P12">
+        <v>80</v>
+      </c>
+      <c r="Q12">
+        <v>147</v>
+      </c>
+      <c r="R12">
+        <v>16</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>25</v>
+      </c>
+      <c r="U12">
         <v>1.5625</v>
       </c>
-      <c r="V12" t="n">
-        <v>41.0</v>
+      <c r="V12">
+        <v>41</v>
       </c>
       <c r="W12" t="s">
         <v>350</v>
@@ -33580,36 +33853,36 @@
         <v>383</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>85</v>
+      </c>
+      <c r="E13">
+        <v>163</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
         <v>1.3125</v>
       </c>
-      <c r="H13" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13">
+        <v>22</v>
+      </c>
+      <c r="I13">
         <v>1.375</v>
       </c>
-      <c r="J13" t="n">
-        <v>43.0</v>
+      <c r="J13">
+        <v>43</v>
       </c>
       <c r="K13" t="s">
         <v>300</v>
@@ -33620,32 +33893,32 @@
       <c r="M13" t="s">
         <v>335</v>
       </c>
-      <c r="N13" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="N13">
+        <v>32</v>
+      </c>
+      <c r="O13">
+        <v>58</v>
+      </c>
+      <c r="P13">
+        <v>74</v>
+      </c>
+      <c r="Q13">
+        <v>132</v>
+      </c>
+      <c r="R13">
+        <v>22</v>
+      </c>
+      <c r="S13">
         <v>1.375</v>
       </c>
-      <c r="T13" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="T13">
+        <v>27</v>
+      </c>
+      <c r="U13">
         <v>1.6875</v>
       </c>
-      <c r="V13" t="n">
-        <v>49.0</v>
+      <c r="V13">
+        <v>49</v>
       </c>
       <c r="W13" t="s">
         <v>351</v>
@@ -33657,36 +33930,36 @@
         <v>384</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="C14">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <v>130</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
         <v>0.8125</v>
       </c>
-      <c r="H14" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="I14">
         <v>1.125</v>
       </c>
-      <c r="J14" t="n">
-        <v>31.0</v>
+      <c r="J14">
+        <v>31</v>
       </c>
       <c r="K14" t="s">
         <v>301</v>
@@ -33697,32 +33970,32 @@
       <c r="M14" t="s">
         <v>336</v>
       </c>
-      <c r="N14" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="N14">
+        <v>32</v>
+      </c>
+      <c r="O14">
+        <v>81</v>
+      </c>
+      <c r="P14">
+        <v>69</v>
+      </c>
+      <c r="Q14">
+        <v>150</v>
+      </c>
+      <c r="R14">
+        <v>32</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>22</v>
+      </c>
+      <c r="U14">
         <v>1.375</v>
       </c>
-      <c r="V14" t="n">
-        <v>54.0</v>
+      <c r="V14">
+        <v>54</v>
       </c>
       <c r="W14" t="s">
         <v>352</v>
@@ -33734,36 +34007,36 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>164.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="C15">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>87</v>
+      </c>
+      <c r="E15">
+        <v>164</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
         <v>1.875</v>
       </c>
-      <c r="H15" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
         <v>1.25</v>
       </c>
-      <c r="J15" t="n">
-        <v>50.0</v>
+      <c r="J15">
+        <v>50</v>
       </c>
       <c r="K15" t="s">
         <v>302</v>
@@ -33774,32 +34047,32 @@
       <c r="M15" t="s">
         <v>337</v>
       </c>
-      <c r="N15" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="N15">
+        <v>32</v>
+      </c>
+      <c r="O15">
+        <v>62</v>
+      </c>
+      <c r="P15">
+        <v>72</v>
+      </c>
+      <c r="Q15">
+        <v>134</v>
+      </c>
+      <c r="R15">
+        <v>22</v>
+      </c>
+      <c r="S15">
         <v>1.375</v>
       </c>
-      <c r="T15" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="T15">
+        <v>18</v>
+      </c>
+      <c r="U15">
         <v>1.125</v>
       </c>
-      <c r="V15" t="n">
-        <v>40.0</v>
+      <c r="V15">
+        <v>40</v>
       </c>
       <c r="W15" t="s">
         <v>353</v>
@@ -33811,36 +34084,36 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>137.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="C16">
+        <v>69</v>
+      </c>
+      <c r="D16">
+        <v>68</v>
+      </c>
+      <c r="E16">
+        <v>137</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
         <v>1.25</v>
       </c>
-      <c r="H16" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
         <v>0.8</v>
       </c>
-      <c r="J16" t="n">
-        <v>32.0</v>
+      <c r="J16">
+        <v>32</v>
       </c>
       <c r="K16" t="s">
         <v>303</v>
@@ -33851,32 +34124,32 @@
       <c r="M16" t="s">
         <v>338</v>
       </c>
-      <c r="N16" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>169.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="N16">
+        <v>31</v>
+      </c>
+      <c r="O16">
+        <v>89</v>
+      </c>
+      <c r="P16">
+        <v>80</v>
+      </c>
+      <c r="Q16">
+        <v>169</v>
+      </c>
+      <c r="R16">
+        <v>21</v>
+      </c>
+      <c r="S16">
         <v>1.3125</v>
       </c>
-      <c r="T16" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="T16">
+        <v>24</v>
+      </c>
+      <c r="U16">
         <v>1.6</v>
       </c>
-      <c r="V16" t="n">
-        <v>45.0</v>
+      <c r="V16">
+        <v>45</v>
       </c>
       <c r="W16" t="s">
         <v>354</v>
@@ -33888,36 +34161,36 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="C17">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>131</v>
+      </c>
+      <c r="F17">
+        <v>27</v>
+      </c>
+      <c r="G17">
         <v>1.6875</v>
       </c>
-      <c r="H17" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
         <v>0.6875</v>
       </c>
-      <c r="J17" t="n">
-        <v>38.0</v>
+      <c r="J17">
+        <v>38</v>
       </c>
       <c r="K17" t="s">
         <v>304</v>
@@ -33928,32 +34201,32 @@
       <c r="M17" t="s">
         <v>339</v>
       </c>
-      <c r="N17" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>183.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="N17">
+        <v>32</v>
+      </c>
+      <c r="O17">
+        <v>82</v>
+      </c>
+      <c r="P17">
+        <v>101</v>
+      </c>
+      <c r="Q17">
+        <v>183</v>
+      </c>
+      <c r="R17">
+        <v>21</v>
+      </c>
+      <c r="S17">
         <v>1.3125</v>
       </c>
-      <c r="T17" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="T17">
+        <v>36</v>
+      </c>
+      <c r="U17">
         <v>2.25</v>
       </c>
-      <c r="V17" t="n">
-        <v>57.0</v>
+      <c r="V17">
+        <v>57</v>
       </c>
       <c r="W17" t="s">
         <v>355</v>
@@ -33965,36 +34238,36 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="C18">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>158</v>
+      </c>
+      <c r="F18">
+        <v>27</v>
+      </c>
+      <c r="G18">
         <v>1.6875</v>
       </c>
-      <c r="H18" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18">
+        <v>23</v>
+      </c>
+      <c r="I18">
         <v>1.4375</v>
       </c>
-      <c r="J18" t="n">
-        <v>50.0</v>
+      <c r="J18">
+        <v>50</v>
       </c>
       <c r="K18" t="s">
         <v>305</v>
@@ -34005,32 +34278,32 @@
       <c r="M18" t="s">
         <v>340</v>
       </c>
-      <c r="N18" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="N18">
+        <v>32</v>
+      </c>
+      <c r="O18">
+        <v>62</v>
+      </c>
+      <c r="P18">
+        <v>84</v>
+      </c>
+      <c r="Q18">
+        <v>146</v>
+      </c>
+      <c r="R18">
+        <v>23</v>
+      </c>
+      <c r="S18">
         <v>1.4375</v>
       </c>
-      <c r="T18" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="T18">
+        <v>28</v>
+      </c>
+      <c r="U18">
         <v>1.75</v>
       </c>
-      <c r="V18" t="n">
-        <v>51.0</v>
+      <c r="V18">
+        <v>51</v>
       </c>
       <c r="W18" t="s">
         <v>356</v>
@@ -34042,36 +34315,36 @@
         <v>389</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="C19">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>115</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+      <c r="G19">
         <v>1.3125</v>
       </c>
-      <c r="H19" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
         <v>0.8125</v>
       </c>
-      <c r="J19" t="n">
-        <v>34.0</v>
+      <c r="J19">
+        <v>34</v>
       </c>
       <c r="K19" t="s">
         <v>306</v>
@@ -34082,32 +34355,32 @@
       <c r="M19" t="s">
         <v>341</v>
       </c>
-      <c r="N19" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>166.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="N19">
+        <v>32</v>
+      </c>
+      <c r="O19">
+        <v>66</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>166</v>
+      </c>
+      <c r="R19">
+        <v>32</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>35</v>
+      </c>
+      <c r="U19">
         <v>2.1875</v>
       </c>
-      <c r="V19" t="n">
-        <v>67.0</v>
+      <c r="V19">
+        <v>67</v>
       </c>
       <c r="W19" t="s">
         <v>357</v>
@@ -34120,20 +34393,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>391</v>
       </c>
@@ -34147,7 +34427,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -34164,7 +34444,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -34181,7 +34461,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -34198,7 +34478,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -34215,7 +34495,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -34232,7 +34512,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -34249,7 +34529,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -34266,7 +34546,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -34283,7 +34563,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -34300,7 +34580,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -34317,7 +34597,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -34334,7 +34614,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -34351,7 +34631,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -34368,7 +34648,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -34385,7 +34665,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -34402,7 +34682,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -34419,7 +34699,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -34436,7 +34716,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -34454,6 +34734,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/D2.xlsx
+++ b/Divisions/D2.xlsx
@@ -1245,166 +1245,166 @@
     <t>Wurzburger Kickers,D L L D L W</t>
   </si>
   <si>
-    <t>Bochum,0 4 2 1 5 1</t>
-  </si>
-  <si>
-    <t>Braunschweig,4 0 0 0 2 1</t>
-  </si>
-  <si>
-    <t>Darmstadt,2 2 3 3 2 5</t>
-  </si>
-  <si>
-    <t>Erzgebirge Aue,1 0 2 0 3 0</t>
-  </si>
-  <si>
-    <t>Fortuna Dusseldorf,3 2 1 3 2 3</t>
-  </si>
-  <si>
-    <t>Greuther Furth,2 3 1 3 2 4</t>
-  </si>
-  <si>
-    <t>Hamburg,1 1 1 1 5 2</t>
-  </si>
-  <si>
-    <t>Hannover,3 3 2 1 0 2</t>
-  </si>
-  <si>
-    <t>Heidenheim,3 3 0 1 2 1</t>
-  </si>
-  <si>
-    <t>Holstein Kiel,1 2 4 1 3 2</t>
-  </si>
-  <si>
-    <t>Karlsruhe,2 0 1 2 2 3</t>
-  </si>
-  <si>
-    <t>Nurnberg,1 1 3 1 2 1</t>
-  </si>
-  <si>
-    <t>Osnabruck,0 0 2 1 3 3</t>
-  </si>
-  <si>
-    <t>Paderborn,3 0 2 2 8 2</t>
-  </si>
-  <si>
-    <t>Regensburg,0 1 1 1 2 0</t>
-  </si>
-  <si>
-    <t>Sandhausen,2 4 2 0 1 2</t>
-  </si>
-  <si>
-    <t>St Pauli,3 4 0 2 0 1</t>
-  </si>
-  <si>
-    <t>Wurzburger Kickers,1 0 1 2 1 2</t>
-  </si>
-  <si>
-    <t>Bochum,3 3 0 3 1 1</t>
-  </si>
-  <si>
-    <t>Braunschweig,0 0 3 2 2 2</t>
-  </si>
-  <si>
-    <t>Darmstadt,1 2 1 1 1 1</t>
-  </si>
-  <si>
-    <t>Erzgebirge Aue,3 1 0 0 8 3</t>
-  </si>
-  <si>
-    <t>Fortuna Dusseldorf,0 0 2 2 2 0</t>
-  </si>
-  <si>
-    <t>Greuther Furth,2 0 2 2 2 2</t>
-  </si>
-  <si>
-    <t>Hamburg,2 2 1 1 2 3</t>
-  </si>
-  <si>
-    <t>Hannover,4 1 4 2 1 1</t>
-  </si>
-  <si>
-    <t>Heidenheim,1 0 2 3 1 5</t>
-  </si>
-  <si>
-    <t>Holstein Kiel,1 0 0 0 2 3</t>
-  </si>
-  <si>
-    <t>Karlsruhe,2 0 1 3 2 2</t>
-  </si>
-  <si>
-    <t>Nurnberg,1 0 1 1 5 1</t>
-  </si>
-  <si>
-    <t>Osnabruck,1 3 2 3 1 2</t>
-  </si>
-  <si>
-    <t>Paderborn,0 0 2 1 3 4</t>
-  </si>
-  <si>
-    <t>Regensburg,3 3 1 5 3 2</t>
-  </si>
-  <si>
-    <t>Sandhausen,1 2 3 2 2 0</t>
-  </si>
-  <si>
-    <t>St Pauli,1 0 2 1 4 2</t>
-  </si>
-  <si>
-    <t>Wurzburger Kickers,1 4 3 2 3 1</t>
-  </si>
-  <si>
-    <t>Bochum,3 7 2 4 6 2</t>
-  </si>
-  <si>
-    <t>Braunschweig,4 0 3 2 4 3</t>
-  </si>
-  <si>
-    <t>Darmstadt,3 4 4 4 3 6</t>
-  </si>
-  <si>
-    <t>Erzgebirge Aue,4 1 2 0 11 3</t>
-  </si>
-  <si>
-    <t>Fortuna Dusseldorf,3 2 3 5 4 3</t>
-  </si>
-  <si>
-    <t>Greuther Furth,4 3 3 5 4 6</t>
-  </si>
-  <si>
-    <t>Hamburg,3 3 2 2 7 5</t>
-  </si>
-  <si>
-    <t>Hannover,7 4 6 3 1 3</t>
-  </si>
-  <si>
-    <t>Heidenheim,4 3 2 4 3 6</t>
-  </si>
-  <si>
-    <t>Holstein Kiel,2 2 4 1 5 5</t>
-  </si>
-  <si>
-    <t>Karlsruhe,4 0 2 5 4 5</t>
-  </si>
-  <si>
-    <t>Nurnberg,2 1 4 2 7 2</t>
-  </si>
-  <si>
-    <t>Osnabruck,1 3 4 4 4 5</t>
-  </si>
-  <si>
-    <t>Paderborn,3 0 4 3 11 6</t>
-  </si>
-  <si>
-    <t>Regensburg,3 4 2 6 5 2</t>
-  </si>
-  <si>
-    <t>Sandhausen,3 6 5 2 3 2</t>
-  </si>
-  <si>
-    <t>St Pauli,4 4 2 3 4 3</t>
-  </si>
-  <si>
-    <t>Wurzburger Kickers,2 4 4 4 4 3</t>
+    <t>Bochum,0 4 2 1 5 1,(13)</t>
+  </si>
+  <si>
+    <t>Braunschweig,4 0 0 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Darmstadt,2 2 3 3 2 5,(17)</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue,1 0 2 0 3 0,(6)</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf,3 2 1 3 2 3,(14)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,2 3 1 3 2 4,(15)</t>
+  </si>
+  <si>
+    <t>Hamburg,1 1 1 1 5 2,(11)</t>
+  </si>
+  <si>
+    <t>Hannover,3 3 2 1 0 2,(11)</t>
+  </si>
+  <si>
+    <t>Heidenheim,3 3 0 1 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Holstein Kiel,1 2 4 1 3 2,(13)</t>
+  </si>
+  <si>
+    <t>Karlsruhe,2 0 1 2 2 3,(10)</t>
+  </si>
+  <si>
+    <t>Nurnberg,1 1 3 1 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Osnabruck,0 0 2 1 3 3,(9)</t>
+  </si>
+  <si>
+    <t>Paderborn,3 0 2 2 8 2,(17)</t>
+  </si>
+  <si>
+    <t>Regensburg,0 1 1 1 2 0,(5)</t>
+  </si>
+  <si>
+    <t>Sandhausen,2 4 2 0 1 2,(11)</t>
+  </si>
+  <si>
+    <t>St Pauli,3 4 0 2 0 1,(10)</t>
+  </si>
+  <si>
+    <t>Wurzburger Kickers,1 0 1 2 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Bochum,3 3 0 3 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Braunschweig,0 0 3 2 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Darmstadt,1 2 1 1 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue,3 1 0 0 8 3,(15)</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf,0 0 2 2 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,2 0 2 2 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Hamburg,2 2 1 1 2 3,(11)</t>
+  </si>
+  <si>
+    <t>Hannover,4 1 4 2 1 1,(13)</t>
+  </si>
+  <si>
+    <t>Heidenheim,1 0 2 3 1 5,(12)</t>
+  </si>
+  <si>
+    <t>Holstein Kiel,1 0 0 0 2 3,(6)</t>
+  </si>
+  <si>
+    <t>Karlsruhe,2 0 1 3 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Nurnberg,1 0 1 1 5 1,(9)</t>
+  </si>
+  <si>
+    <t>Osnabruck,1 3 2 3 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Paderborn,0 0 2 1 3 4,(10)</t>
+  </si>
+  <si>
+    <t>Regensburg,3 3 1 5 3 2,(17)</t>
+  </si>
+  <si>
+    <t>Sandhausen,1 2 3 2 2 0,(10)</t>
+  </si>
+  <si>
+    <t>St Pauli,1 0 2 1 4 2,(10)</t>
+  </si>
+  <si>
+    <t>Wurzburger Kickers,1 4 3 2 3 1,(14)</t>
+  </si>
+  <si>
+    <t>Bochum,3 7 2 4 6 2,(24)</t>
+  </si>
+  <si>
+    <t>Braunschweig,4 0 3 2 4 3,(16)</t>
+  </si>
+  <si>
+    <t>Darmstadt,3 4 4 4 3 6,(24)</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue,4 1 2 0 11 3,(21)</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf,3 2 3 5 4 3,(20)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,4 3 3 5 4 6,(25)</t>
+  </si>
+  <si>
+    <t>Hamburg,3 3 2 2 7 5,(22)</t>
+  </si>
+  <si>
+    <t>Hannover,7 4 6 3 1 3,(24)</t>
+  </si>
+  <si>
+    <t>Heidenheim,4 3 2 4 3 6,(22)</t>
+  </si>
+  <si>
+    <t>Holstein Kiel,2 2 4 1 5 5,(19)</t>
+  </si>
+  <si>
+    <t>Karlsruhe,4 0 2 5 4 5,(20)</t>
+  </si>
+  <si>
+    <t>Nurnberg,2 1 4 2 7 2,(18)</t>
+  </si>
+  <si>
+    <t>Osnabruck,1 3 4 4 4 5,(21)</t>
+  </si>
+  <si>
+    <t>Paderborn,3 0 4 3 11 6,(27)</t>
+  </si>
+  <si>
+    <t>Regensburg,3 4 2 6 5 2,(22)</t>
+  </si>
+  <si>
+    <t>Sandhausen,3 6 5 2 3 2,(21)</t>
+  </si>
+  <si>
+    <t>St Pauli,4 4 2 3 4 3,(20)</t>
+  </si>
+  <si>
+    <t>Wurzburger Kickers,2 4 4 4 4 3,(21)</t>
   </si>
   <si>
     <t>Bochum,Paderborn Hannover Heidenheim Darmstadt Regensburg Nurnberg</t>

--- a/Divisions/D2.xlsx
+++ b/Divisions/D2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7779" uniqueCount="1466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7819" uniqueCount="1466">
   <si>
     <t>Team</t>
   </si>
@@ -5207,6 +5207,15 @@
       <c r="V1" t="s">
         <v>97</v>
       </c>
+      <c r="W1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -5272,8 +5281,17 @@
       <c r="U2" t="s">
         <v>3</v>
       </c>
-      <c r="V2" t="e">
-        <v>#N/A</v>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5340,8 +5358,17 @@
       <c r="U3" t="s">
         <v>3</v>
       </c>
-      <c r="V3" t="e">
-        <v>#N/A</v>
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5408,8 +5435,17 @@
       <c r="U4" t="s">
         <v>3</v>
       </c>
-      <c r="V4" t="e">
-        <v>#N/A</v>
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5476,8 +5512,17 @@
       <c r="U5" t="s">
         <v>4</v>
       </c>
-      <c r="V5" t="e">
-        <v>#N/A</v>
+      <c r="V5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5544,8 +5589,17 @@
       <c r="U6" t="s">
         <v>3</v>
       </c>
-      <c r="V6" t="e">
-        <v>#N/A</v>
+      <c r="V6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -5612,8 +5666,17 @@
       <c r="U7" t="s">
         <v>2</v>
       </c>
-      <c r="V7" t="e">
-        <v>#N/A</v>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -5680,8 +5743,17 @@
       <c r="U8" t="s">
         <v>4</v>
       </c>
-      <c r="V8" t="e">
-        <v>#N/A</v>
+      <c r="V8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -5748,8 +5820,17 @@
       <c r="U9" t="s">
         <v>2</v>
       </c>
-      <c r="V9" t="e">
-        <v>#N/A</v>
+      <c r="V9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -5816,8 +5897,17 @@
       <c r="U10" t="s">
         <v>3</v>
       </c>
-      <c r="V10" t="e">
-        <v>#N/A</v>
+      <c r="V10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -5884,8 +5974,17 @@
       <c r="U11" t="s">
         <v>4</v>
       </c>
-      <c r="V11" t="e">
-        <v>#N/A</v>
+      <c r="V11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -5952,8 +6051,17 @@
       <c r="U12" t="s">
         <v>3</v>
       </c>
-      <c r="V12" t="e">
-        <v>#N/A</v>
+      <c r="V12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -6020,8 +6128,17 @@
       <c r="U13" t="s">
         <v>4</v>
       </c>
-      <c r="V13" t="e">
-        <v>#N/A</v>
+      <c r="V13" t="s">
+        <v>4</v>
+      </c>
+      <c r="W13" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -6088,8 +6205,17 @@
       <c r="U14" t="s">
         <v>2</v>
       </c>
-      <c r="V14" t="e">
-        <v>#N/A</v>
+      <c r="V14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -6156,8 +6282,17 @@
       <c r="U15" t="s">
         <v>2</v>
       </c>
-      <c r="V15" t="e">
-        <v>#N/A</v>
+      <c r="V15" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -6224,8 +6359,17 @@
       <c r="U16" t="s">
         <v>4</v>
       </c>
-      <c r="V16" t="e">
-        <v>#N/A</v>
+      <c r="V16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -6292,8 +6436,17 @@
       <c r="U17" t="s">
         <v>3</v>
       </c>
-      <c r="V17" t="e">
-        <v>#N/A</v>
+      <c r="V17" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -6360,8 +6513,17 @@
       <c r="U18" t="s">
         <v>3</v>
       </c>
-      <c r="V18" t="e">
-        <v>#N/A</v>
+      <c r="V18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -6428,8 +6590,17 @@
       <c r="U19" t="s">
         <v>2</v>
       </c>
-      <c r="V19" t="e">
-        <v>#N/A</v>
+      <c r="V19" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6451,75 +6622,72 @@
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6530,23 +6698,23 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
+      <c r="C2" t="n">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="n">
         <v>1.0</v>
@@ -6555,34 +6723,34 @@
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.0</v>
       </c>
-      <c r="L2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.0</v>
-      </c>
       <c r="N2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="P2" t="n">
         <v>4.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S2" t="n">
         <v>1.0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U2" t="n">
         <v>2.0</v>
@@ -6591,15 +6759,12 @@
         <v>2.0</v>
       </c>
       <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
         <v>2.0</v>
       </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -6610,44 +6775,44 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
+      <c r="C3" t="n">
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F3" t="n">
         <v>3.0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.0</v>
       </c>
-      <c r="F3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
       </c>
       <c r="P3" t="n">
         <v>1.0</v>
@@ -6656,30 +6821,27 @@
         <v>1.0</v>
       </c>
       <c r="R3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.0</v>
       </c>
-      <c r="S3" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.0</v>
       </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.0</v>
       </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="X3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -6690,32 +6852,32 @@
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
+      <c r="C4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
         <v>1.0</v>
       </c>
       <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.0</v>
       </c>
       <c r="L4" t="n">
         <v>1.0</v>
@@ -6727,39 +6889,36 @@
         <v>1.0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P4" t="n">
         <v>2.0</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.0</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.0</v>
-      </c>
       <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
         <v>2.0</v>
       </c>
-      <c r="W4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -6770,20 +6929,20 @@
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
+      <c r="C5" t="n">
+        <v>2.0</v>
       </c>
       <c r="D5" t="n">
         <v>2.0</v>
       </c>
       <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
         <v>2.0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="G5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="n">
         <v>1.0</v>
@@ -6792,37 +6951,37 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K5" t="n">
         <v>2.0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>1.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.0</v>
       </c>
       <c r="O5" t="n">
         <v>1.0</v>
       </c>
       <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U5" t="n">
         <v>0.0</v>
@@ -6834,12 +6993,9 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z5" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -6850,23 +7006,23 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6" t="n">
+        <v>3.0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F6" t="n">
         <v>2.0</v>
       </c>
       <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
       </c>
       <c r="I6" t="n">
         <v>2.0</v>
@@ -6875,51 +7031,48 @@
         <v>2.0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
       </c>
       <c r="M6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N6" t="n">
         <v>1.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.0</v>
       </c>
       <c r="O6" t="n">
         <v>1.0</v>
       </c>
       <c r="P6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.0</v>
       </c>
       <c r="U6" t="n">
         <v>1.0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X6" t="n">
         <v>2.0</v>
       </c>
-      <c r="X6" t="n">
-        <v>5.0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z6" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -6930,76 +7083,73 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
+      <c r="C7" t="n">
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.0</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.0</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1.0</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.0</v>
-      </c>
       <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.0</v>
       </c>
       <c r="N7" t="n">
         <v>1.0</v>
       </c>
       <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.0</v>
       </c>
-      <c r="P7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.0</v>
       </c>
-      <c r="R7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.0</v>
       </c>
       <c r="U7" t="n">
         <v>1.0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="X7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z7" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -7010,65 +7160,65 @@
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
+      <c r="C8" t="n">
+        <v>1.0</v>
       </c>
       <c r="D8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E8" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.0</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
       </c>
       <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.0</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n">
         <v>2.0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P8" t="n">
         <v>2.0</v>
       </c>
-      <c r="M8" t="n">
+      <c r="Q8" t="n">
         <v>1.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.0</v>
       </c>
       <c r="R8" t="n">
         <v>1.0</v>
       </c>
       <c r="S8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.0</v>
       </c>
       <c r="W8" t="n">
         <v>1.0</v>
@@ -7077,9 +7227,6 @@
         <v>1.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -7090,56 +7237,56 @@
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
+      <c r="C9" t="n">
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n">
         <v>1.0</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="O9" t="n">
         <v>3.0</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>1.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.0</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="T9" t="n">
         <v>2.0</v>
@@ -7148,18 +7295,15 @@
         <v>2.0</v>
       </c>
       <c r="V9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="X9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z9" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -7170,8 +7314,8 @@
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
+      <c r="C10" t="n">
+        <v>0.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -7180,25 +7324,25 @@
         <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.0</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.0</v>
-      </c>
       <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
         <v>2.0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M10" t="n">
         <v>1.0</v>
@@ -7207,39 +7351,36 @@
         <v>1.0</v>
       </c>
       <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.0</v>
       </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.0</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>2.0</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.0</v>
       </c>
-      <c r="T10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>3.0</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.0</v>
-      </c>
       <c r="W10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" t="n">
         <v>3.0</v>
       </c>
-      <c r="X10" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z10" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7250,76 +7391,73 @@
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
+      <c r="C11" t="n">
+        <v>0.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
       </c>
       <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1.0</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P11" t="n">
         <v>1.0</v>
       </c>
-      <c r="N11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Q11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.0</v>
       </c>
       <c r="S11" t="n">
         <v>1.0</v>
       </c>
       <c r="T11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.0</v>
       </c>
-      <c r="U11" t="n">
-        <v>3.0</v>
-      </c>
       <c r="V11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.0</v>
       </c>
-      <c r="W11" t="n">
-        <v>0.0</v>
-      </c>
       <c r="X11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -7330,59 +7468,59 @@
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
+      <c r="C12" t="n">
+        <v>3.0</v>
       </c>
       <c r="D12" t="n">
         <v>3.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I12" t="n">
         <v>2.0</v>
       </c>
       <c r="J12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.0</v>
       </c>
       <c r="L12" t="n">
         <v>2.0</v>
       </c>
       <c r="M12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N12" t="n">
         <v>2.0</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>1.0</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>2.0</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.0</v>
       </c>
       <c r="U12" t="n">
         <v>2.0</v>
@@ -7391,15 +7529,12 @@
         <v>2.0</v>
       </c>
       <c r="W12" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z12" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -7410,76 +7545,73 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>34</v>
+      <c r="C13" t="n">
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E13" t="n">
         <v>2.0</v>
       </c>
       <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
         <v>2.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0</v>
       </c>
       <c r="H13" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J13" t="n">
         <v>2.0</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1.0</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.0</v>
       </c>
       <c r="P13" t="n">
         <v>1.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R13" t="n">
         <v>2.0</v>
       </c>
       <c r="S13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W13" t="n">
         <v>2.0</v>
       </c>
-      <c r="T13" t="n">
+      <c r="X13" t="n">
         <v>1.0</v>
       </c>
-      <c r="U13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Y13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z13" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -7490,44 +7622,44 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
+      <c r="C14" t="n">
+        <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F14" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G14" t="n">
         <v>3.0</v>
       </c>
       <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>1.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.0</v>
       </c>
       <c r="M14" t="n">
         <v>1.0</v>
       </c>
       <c r="N14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4.0</v>
       </c>
       <c r="P14" t="n">
         <v>1.0</v>
@@ -7539,27 +7671,24 @@
         <v>1.0</v>
       </c>
       <c r="S14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.0</v>
       </c>
-      <c r="T14" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.0</v>
       </c>
       <c r="W14" t="n">
         <v>1.0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z14" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7570,76 +7699,73 @@
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
-        <v>38</v>
+      <c r="C15" t="n">
+        <v>2.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E15" t="n">
         <v>3.0</v>
       </c>
       <c r="F15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.0</v>
       </c>
-      <c r="G15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>2.0</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1.0</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.0</v>
       </c>
       <c r="N15" t="n">
         <v>3.0</v>
       </c>
       <c r="O15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>3.0</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U15" t="n">
         <v>3.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.0</v>
       </c>
       <c r="V15" t="n">
         <v>3.0</v>
       </c>
       <c r="W15" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="X15" t="n">
         <v>2.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z15" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7650,8 +7776,8 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>43</v>
+      <c r="C16" t="n">
+        <v>0.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
@@ -7660,66 +7786,63 @@
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I16" t="n">
         <v>1.0</v>
       </c>
       <c r="J16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.0</v>
       </c>
       <c r="L16" t="n">
         <v>1.0</v>
       </c>
       <c r="M16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N16" t="n">
         <v>1.0</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.0</v>
       </c>
-      <c r="O16" t="n">
+      <c r="R16" t="n">
         <v>1.0</v>
       </c>
-      <c r="P16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.0</v>
       </c>
-      <c r="R16" t="n">
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W16" t="n">
         <v>2.0</v>
       </c>
-      <c r="S16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.0</v>
-      </c>
       <c r="X16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -7730,76 +7853,73 @@
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
+      <c r="C17" t="n">
+        <v>1.0</v>
       </c>
       <c r="D17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E17" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.0</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
       </c>
       <c r="G17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.0</v>
       </c>
       <c r="I17" t="n">
         <v>1.0</v>
       </c>
       <c r="J17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1.0</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="n">
         <v>2.0</v>
       </c>
-      <c r="L17" t="n">
+      <c r="P17" t="n">
         <v>3.0</v>
       </c>
-      <c r="M17" t="n">
+      <c r="Q17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.0</v>
       </c>
-      <c r="N17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5.0</v>
-      </c>
       <c r="S17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4.0</v>
       </c>
       <c r="U17" t="n">
         <v>1.0</v>
       </c>
       <c r="V17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X17" t="n">
         <v>1.0</v>
       </c>
-      <c r="W17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z17" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -7810,76 +7930,73 @@
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
+      <c r="C18" t="n">
+        <v>3.0</v>
       </c>
       <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
         <v>3.0</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.0</v>
-      </c>
       <c r="F18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.0</v>
       </c>
       <c r="K18" t="n">
         <v>3.0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M18" t="n">
         <v>4.0</v>
       </c>
       <c r="N18" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="O18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.0</v>
       </c>
-      <c r="P18" t="n">
+      <c r="T18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="V18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X18" t="n">
         <v>3.0</v>
       </c>
-      <c r="S18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Y18" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z18" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7890,76 +8007,73 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
+      <c r="C19" t="n">
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E19" t="n">
         <v>1.0</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
         <v>3.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0</v>
       </c>
       <c r="H19" t="n">
         <v>3.0</v>
       </c>
       <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="L19" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O19" t="n">
         <v>2.0</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>1.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.0</v>
       </c>
       <c r="Q19" t="n">
         <v>1.0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="S19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T19" t="n">
         <v>4.0</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>3.0</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>4.0</v>
       </c>
-      <c r="V19" t="n">
-        <v>3.0</v>
-      </c>
       <c r="W19" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="X19" t="n">
         <v>2.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -7982,75 +8096,72 @@
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8061,76 +8172,73 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
+      <c r="C2" t="n">
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" t="n">
         <v>2.0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R2" t="n">
         <v>3.0</v>
       </c>
-      <c r="F2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X2" t="n">
         <v>2.0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>5.0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -8141,76 +8249,73 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
+      <c r="C3" t="n">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="G3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.0</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.0</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
         <v>3.0</v>
       </c>
-      <c r="M3" t="n">
+      <c r="U3" t="n">
         <v>1.0</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3.0</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="X3" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -8221,76 +8326,73 @@
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
+      <c r="C4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G4" t="n">
         <v>3.0</v>
       </c>
       <c r="H4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>1.0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R4" t="n">
         <v>4.0</v>
       </c>
-      <c r="K4" t="n">
+      <c r="S4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T4" t="n">
         <v>3.0</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="U4" t="n">
         <v>2.0</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W4" t="n">
         <v>2.0</v>
       </c>
-      <c r="S4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
         <v>3.0</v>
       </c>
-      <c r="V4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Y4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -8301,44 +8403,44 @@
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
+      <c r="C5" t="n">
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="n">
         <v>2.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.0</v>
       </c>
       <c r="M5" t="n">
         <v>1.0</v>
       </c>
       <c r="N5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.0</v>
       </c>
       <c r="P5" t="n">
         <v>1.0</v>
@@ -8356,10 +8458,10 @@
         <v>1.0</v>
       </c>
       <c r="U5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.0</v>
       </c>
       <c r="W5" t="n">
         <v>1.0</v>
@@ -8368,9 +8470,6 @@
         <v>1.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z5" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -8381,32 +8480,32 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6" t="n">
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
         <v>1.0</v>
       </c>
       <c r="E6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.0</v>
       </c>
-      <c r="F6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
         <v>2.0</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>1.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.0</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
@@ -8424,16 +8523,16 @@
         <v>1.0</v>
       </c>
       <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.0</v>
       </c>
-      <c r="R6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0</v>
       </c>
       <c r="U6" t="n">
         <v>1.0</v>
@@ -8442,15 +8541,12 @@
         <v>1.0</v>
       </c>
       <c r="W6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X6" t="n">
         <v>0.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z6" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -8461,76 +8557,73 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
+      <c r="C7" t="n">
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="M7" t="n">
         <v>3.0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="N7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.0</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="Q7" t="n">
         <v>4.0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="R7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X7" t="n">
         <v>2.0</v>
       </c>
-      <c r="L7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Y7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z7" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -8541,41 +8634,41 @@
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
+      <c r="C8" t="n">
+        <v>3.0</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
         <v>3.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.0</v>
       </c>
       <c r="G8" t="n">
         <v>3.0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
         <v>1.0</v>
       </c>
       <c r="J8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.0</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.0</v>
       </c>
       <c r="O8" t="n">
         <v>1.0</v>
@@ -8590,27 +8683,24 @@
         <v>1.0</v>
       </c>
       <c r="S8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.0</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>3.0</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" t="n">
         <v>2.0</v>
       </c>
-      <c r="V8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -8621,11 +8711,11 @@
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
+      <c r="C9" t="n">
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -8634,10 +8724,10 @@
         <v>1.0</v>
       </c>
       <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
@@ -8646,51 +8736,48 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M9" t="n">
         <v>4.0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P9" t="n">
         <v>2.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R9" t="n">
         <v>0.0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U9" t="n">
         <v>1.0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W9" t="n">
         <v>0.0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z9" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -8701,8 +8788,8 @@
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
+      <c r="C10" t="n">
+        <v>3.0</v>
       </c>
       <c r="D10" t="n">
         <v>3.0</v>
@@ -8711,25 +8798,25 @@
         <v>3.0</v>
       </c>
       <c r="F10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.0</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>1.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.0</v>
       </c>
       <c r="M10" t="n">
         <v>1.0</v>
@@ -8738,39 +8825,36 @@
         <v>1.0</v>
       </c>
       <c r="O10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.0</v>
       </c>
       <c r="Q10" t="n">
         <v>1.0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S10" t="n">
         <v>2.0</v>
       </c>
       <c r="T10" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V10" t="n">
         <v>1.0</v>
       </c>
       <c r="W10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X10" t="n">
         <v>2.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z10" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -8781,76 +8865,73 @@
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
+      <c r="C11" t="n">
+        <v>3.0</v>
       </c>
       <c r="D11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.0</v>
       </c>
-      <c r="E11" t="n">
+      <c r="I11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J11" t="n">
         <v>2.0</v>
       </c>
-      <c r="F11" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>3.0</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.0</v>
-      </c>
       <c r="L11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M11" t="n">
         <v>1.0</v>
       </c>
       <c r="N11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>3.0</v>
       </c>
       <c r="P11" t="n">
         <v>1.0</v>
       </c>
       <c r="Q11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.0</v>
       </c>
-      <c r="R11" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.0</v>
       </c>
-      <c r="U11" t="n">
-        <v>0.0</v>
-      </c>
       <c r="V11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.0</v>
       </c>
-      <c r="W11" t="n">
-        <v>0.0</v>
-      </c>
       <c r="X11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -8861,11 +8942,11 @@
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
+      <c r="C12" t="n">
+        <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>
@@ -8874,43 +8955,43 @@
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H12" t="n">
         <v>2.0</v>
       </c>
       <c r="I12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.0</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1.0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3.0</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O12" t="n">
         <v>2.0</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>1.0</v>
       </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
         <v>3.0</v>
       </c>
-      <c r="O12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="S12" t="n">
         <v>2.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.0</v>
       </c>
       <c r="T12" t="n">
         <v>2.0</v>
@@ -8919,18 +9000,15 @@
         <v>2.0</v>
       </c>
       <c r="V12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X12" t="n">
         <v>1.0</v>
       </c>
-      <c r="X12" t="n">
-        <v>5.0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z12" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -8941,62 +9019,62 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>34</v>
+      <c r="C13" t="n">
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.0</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.0</v>
       </c>
-      <c r="I13" t="n">
+      <c r="P13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.0</v>
       </c>
       <c r="V13" t="n">
         <v>2.0</v>
@@ -9005,12 +9083,9 @@
         <v>2.0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z13" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -9021,38 +9096,38 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
+      <c r="C14" t="n">
+        <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F14" t="n">
         <v>1.0</v>
       </c>
       <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0</v>
       </c>
       <c r="I14" t="n">
         <v>1.0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K14" t="n">
         <v>2.0</v>
       </c>
       <c r="L14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M14" t="n">
         <v>2.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.0</v>
       </c>
       <c r="N14" t="n">
         <v>2.0</v>
@@ -9064,7 +9139,7 @@
         <v>2.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R14" t="n">
         <v>1.0</v>
@@ -9073,24 +9148,21 @@
         <v>1.0</v>
       </c>
       <c r="T14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.0</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W14" t="n">
         <v>2.0</v>
       </c>
-      <c r="V14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.0</v>
-      </c>
       <c r="X14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z14" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -9101,8 +9173,8 @@
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
-        <v>38</v>
+      <c r="C15" t="n">
+        <v>0.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
@@ -9111,66 +9183,63 @@
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H15" t="n">
         <v>2.0</v>
       </c>
       <c r="I15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J15" t="n">
         <v>2.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.0</v>
       </c>
       <c r="K15" t="n">
         <v>2.0</v>
       </c>
       <c r="L15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M15" t="n">
         <v>1.0</v>
       </c>
       <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.0</v>
       </c>
-      <c r="O15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="P15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>3.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.0</v>
       </c>
       <c r="S15" t="n">
         <v>3.0</v>
       </c>
       <c r="T15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X15" t="n">
         <v>3.0</v>
       </c>
-      <c r="U15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z15" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -9181,76 +9250,73 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>43</v>
+      <c r="C16" t="n">
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.0</v>
       </c>
       <c r="H16" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M16" t="n">
         <v>2.0</v>
       </c>
-      <c r="J16" t="n">
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" t="n">
         <v>3.0</v>
       </c>
-      <c r="K16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="V16" t="n">
         <v>2.0</v>
       </c>
-      <c r="O16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3.0</v>
-      </c>
       <c r="W16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="X16" t="n">
         <v>0.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -9261,56 +9327,56 @@
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
+      <c r="C17" t="n">
+        <v>3.0</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O17" t="n">
         <v>3.0</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="P17" t="n">
         <v>1.0</v>
       </c>
-      <c r="G17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="Q17" t="n">
         <v>2.0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.0</v>
       </c>
       <c r="R17" t="n">
         <v>2.0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T17" t="n">
         <v>1.0</v>
@@ -9319,18 +9385,15 @@
         <v>1.0</v>
       </c>
       <c r="V17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.0</v>
       </c>
-      <c r="W17" t="n">
-        <v>0.0</v>
-      </c>
       <c r="X17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z17" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -9341,23 +9404,23 @@
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
+      <c r="C18" t="n">
+        <v>0.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -9366,37 +9429,37 @@
         <v>1.0</v>
       </c>
       <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18" t="n">
         <v>1.0</v>
       </c>
-      <c r="L18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="P18" t="n">
         <v>4.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="R18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S18" t="n">
         <v>1.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U18" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V18" t="n">
         <v>2.0</v>
@@ -9408,9 +9471,6 @@
         <v>2.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z18" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -9421,41 +9481,41 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
+      <c r="C19" t="n">
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N19" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.0</v>
       </c>
       <c r="O19" t="n">
         <v>1.0</v>
@@ -9464,33 +9524,30 @@
         <v>1.0</v>
       </c>
       <c r="Q19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.0</v>
       </c>
-      <c r="R19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.0</v>
-      </c>
       <c r="U19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3.0</v>
       </c>
       <c r="X19" t="n">
         <v>1.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -9572,6 +9629,15 @@
       <c r="V1" t="s">
         <v>97</v>
       </c>
+      <c r="W1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -9637,8 +9703,17 @@
       <c r="U2" t="n">
         <v>4.0</v>
       </c>
-      <c r="V2" t="e">
-        <v>#N/A</v>
+      <c r="V2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -9705,8 +9780,17 @@
       <c r="U3" t="n">
         <v>2.0</v>
       </c>
-      <c r="V3" t="e">
-        <v>#N/A</v>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -9773,8 +9857,17 @@
       <c r="U4" t="n">
         <v>4.0</v>
       </c>
-      <c r="V4" t="e">
-        <v>#N/A</v>
+      <c r="V4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -9841,8 +9934,17 @@
       <c r="U5" t="n">
         <v>3.0</v>
       </c>
-      <c r="V5" t="e">
-        <v>#N/A</v>
+      <c r="V5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -9909,8 +10011,17 @@
       <c r="U6" t="n">
         <v>2.0</v>
       </c>
-      <c r="V6" t="e">
-        <v>#N/A</v>
+      <c r="V6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -9977,8 +10088,17 @@
       <c r="U7" t="n">
         <v>1.0</v>
       </c>
-      <c r="V7" t="e">
-        <v>#N/A</v>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -10045,8 +10165,17 @@
       <c r="U8" t="n">
         <v>1.0</v>
       </c>
-      <c r="V8" t="e">
-        <v>#N/A</v>
+      <c r="V8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -10113,8 +10242,17 @@
       <c r="U9" t="n">
         <v>3.0</v>
       </c>
-      <c r="V9" t="e">
-        <v>#N/A</v>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -10181,8 +10319,17 @@
       <c r="U10" t="n">
         <v>2.0</v>
       </c>
-      <c r="V10" t="e">
-        <v>#N/A</v>
+      <c r="V10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -10249,8 +10396,17 @@
       <c r="U11" t="n">
         <v>3.0</v>
       </c>
-      <c r="V11" t="e">
-        <v>#N/A</v>
+      <c r="V11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -10317,8 +10473,17 @@
       <c r="U12" t="n">
         <v>4.0</v>
       </c>
-      <c r="V12" t="e">
-        <v>#N/A</v>
+      <c r="V12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -10385,8 +10550,17 @@
       <c r="U13" t="n">
         <v>3.0</v>
       </c>
-      <c r="V13" t="e">
-        <v>#N/A</v>
+      <c r="V13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -10453,8 +10627,17 @@
       <c r="U14" t="n">
         <v>3.0</v>
       </c>
-      <c r="V14" t="e">
-        <v>#N/A</v>
+      <c r="V14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -10521,8 +10704,17 @@
       <c r="U15" t="n">
         <v>3.0</v>
       </c>
-      <c r="V15" t="e">
-        <v>#N/A</v>
+      <c r="V15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -10589,8 +10781,17 @@
       <c r="U16" t="n">
         <v>3.0</v>
       </c>
-      <c r="V16" t="e">
-        <v>#N/A</v>
+      <c r="V16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -10657,8 +10858,17 @@
       <c r="U17" t="n">
         <v>2.0</v>
       </c>
-      <c r="V17" t="e">
-        <v>#N/A</v>
+      <c r="V17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -10725,8 +10935,17 @@
       <c r="U18" t="n">
         <v>4.0</v>
       </c>
-      <c r="V18" t="e">
-        <v>#N/A</v>
+      <c r="V18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -10793,8 +11012,17 @@
       <c r="U19" t="n">
         <v>3.0</v>
       </c>
-      <c r="V19" t="e">
-        <v>#N/A</v>
+      <c r="V19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
